--- a/snapshot/BodyLength.xlsx
+++ b/snapshot/BodyLength.xlsx
@@ -355,7 +355,7 @@
     <t>deltaFlag</t>
   </si>
   <si>
-    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/deltaFlag]]} {[]}
+    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/DeltaFlagExt]]} {[]}
 </t>
   </si>
   <si>
@@ -376,7 +376,7 @@
     <t>measurementDevice</t>
   </si>
   <si>
-    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/measurementDevice]]} {[]}
+    <t xml:space="preserve">extension {[CanonicalType[http://hl7.org/fhir/hspc/StructureDefinition/MeasurementDeviceExt]]} {[]}
 </t>
   </si>
   <si>
